--- a/10.xlsx
+++ b/10.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8535"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="12690" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -84,22 +84,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-      <charset val="204"/>
-      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="3">
@@ -143,34 +135,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -181,9 +172,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -232,7 +220,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -267,7 +255,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -479,61 +467,60 @@
   <dimension ref="A2:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="8" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="4">
         <v>400</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="11" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="5">
         <v>0.13</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="5">
         <v>0.03</v>
       </c>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="6"/>
     </row>
-    <row r="9" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>5</v>
       </c>
@@ -556,243 +543,243 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>1</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10">
         <v>1250</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10">
         <f>(C10-C3)*C4</f>
         <v>110.5</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10">
         <f>C10*C5</f>
         <v>37.5</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10">
         <f>D10-E10</f>
         <v>73</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10">
         <f>C10-F10</f>
         <v>1177</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>2</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11">
         <v>1500</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11">
         <f>(C11-C3)*C4</f>
         <v>143</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11">
         <f>C11*C5</f>
         <v>45</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11">
         <f t="shared" ref="F11:F17" si="0">D11-E11</f>
         <v>98</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11">
         <f t="shared" ref="G11:G17" si="1">C11-F11</f>
         <v>1402</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>3</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12">
         <v>1750</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12">
         <f>(C12-C3)*C4</f>
         <v>175.5</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12">
         <f>C12*C5</f>
         <v>52.5</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12">
         <f t="shared" si="0"/>
         <v>123</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12">
         <f t="shared" si="1"/>
         <v>1627</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>4</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13">
         <v>1862</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13">
         <f>(C13-C3)*C4</f>
         <v>190.06</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13">
         <f>C13*C5</f>
         <v>55.86</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13">
         <f t="shared" si="0"/>
         <v>134.19999999999999</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13">
         <f t="shared" si="1"/>
         <v>1727.8</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>5</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14">
         <v>2000</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14">
         <f>(C14-C3)*C4</f>
         <v>208</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14">
         <f>C14*C5</f>
         <v>60</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14">
         <f t="shared" si="0"/>
         <v>148</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14">
         <f t="shared" si="1"/>
         <v>1852</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>6</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15">
         <v>2250</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15">
         <f>(C15-C3)*C4</f>
         <v>240.5</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15">
         <f>C15*C5</f>
         <v>67.5</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15">
         <f t="shared" si="0"/>
         <v>173</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15">
         <f t="shared" si="1"/>
         <v>2077</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>7</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16">
         <v>2750</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16">
         <f>(C16-C3)*C4</f>
         <v>305.5</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16">
         <f>C16*C5</f>
         <v>82.5</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16">
         <f t="shared" si="0"/>
         <v>223</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16">
         <f t="shared" si="1"/>
         <v>2527</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>8</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17">
         <v>3450</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17">
         <f>(C17-C3)*C4</f>
         <v>396.5</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17">
         <f>C17*C5</f>
         <v>103.5</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17">
         <f t="shared" si="0"/>
         <v>293</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17">
         <f t="shared" si="1"/>
         <v>3157</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B18" s="1" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18">
         <f>SUM(C10:C17)</f>
         <v>16812</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18">
         <f t="shared" ref="D18:G18" si="2">SUM(D10:D17)</f>
         <v>1769.56</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18">
         <f t="shared" si="2"/>
         <v>504.36</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18">
         <f t="shared" si="2"/>
         <v>1265.2</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18">
         <f t="shared" si="2"/>
         <v>15546.8</v>
       </c>
